--- a/RUDN/Importance/Varible_muatal_class_in_Northern Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Northern Africa.xlsx
@@ -14,347 +14,347 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
   <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Population ages 70-74, male (% of male population)</t>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
   </si>
   <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
-    <t>Female population 05-09</t>
+    <t>Population ages 65 and above, male</t>
   </si>
   <si>
     <t>Male population 40-44</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
     <t>Age population, age 02, female, interpolated</t>
   </si>
   <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
     <t>Female population 70-74</t>
   </si>
   <si>
     <t>Male population 65-69</t>
   </si>
   <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
     <t>Male population 05-09</t>
   </si>
   <si>
@@ -376,12 +376,12 @@
     <t>Female population 65-69</t>
   </si>
   <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 70-74</t>
   </si>
   <si>
@@ -412,12 +412,12 @@
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
@@ -445,243 +445,243 @@
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
   </si>
   <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
     <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
   </si>
   <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
   </si>
   <si>
     <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
     <t>Male population 35-39</t>
   </si>
   <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
   </si>
   <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
     <t>Female population 60-64</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
@@ -703,526 +703,532 @@
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
     <t>Literacy rate, adult female (% of females ages 15 and above)</t>
   </si>
   <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Region_code</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
     <t>Status under enhanced HIPC initiative</t>
   </si>
   <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
     <t>Literacy rate, youth total (% of people ages 15-24)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
   </si>
   <si>
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Population, total</t>
   </si>
   <si>
     <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B404"/>
+  <dimension ref="A1:B406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2740,7 +2746,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.4558664947893303</v>
+        <v>0.4573866413094768</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2748,7 +2754,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.4548197621286664</v>
+        <v>0.4558664947893303</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2756,7 +2762,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.4501522090750445</v>
+        <v>0.4496915570004612</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2764,7 +2770,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.4482291321519676</v>
+        <v>0.4480517027437689</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2772,7 +2778,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.4480517027437689</v>
+        <v>0.445329638483243</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2780,7 +2786,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.445329638483243</v>
+        <v>0.4449385863938322</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2796,7 +2802,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.4346821761374219</v>
+        <v>0.4310496449724804</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2804,7 +2810,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.4343204340125003</v>
+        <v>0.4293097182325536</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2812,7 +2818,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.4293097182325536</v>
+        <v>0.4291998281226637</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2820,7 +2826,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.4291998281226637</v>
+        <v>0.4288686635607297</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2836,7 +2842,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.4236803861676237</v>
+        <v>0.4239129453681911</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2876,7 +2882,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.4177844356384883</v>
+        <v>0.4124171663400018</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2892,7 +2898,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.4124171663400018</v>
+        <v>0.4111806953066794</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2900,7 +2906,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.4111806953066794</v>
+        <v>0.4082957707830079</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2932,7 +2938,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.4034855424083779</v>
+        <v>0.4032043278963942</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2940,7 +2946,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.4032043278963942</v>
+        <v>0.3936744133664796</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2948,7 +2954,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.3945534160086617</v>
+        <v>0.3926060372981035</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2956,7 +2962,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.3936744133664796</v>
+        <v>0.3918227409855144</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2964,7 +2970,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.3926060372981035</v>
+        <v>0.3917486681715034</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2972,7 +2978,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.3917486681715034</v>
+        <v>0.3905423744652099</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2980,7 +2986,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.3905423744652099</v>
+        <v>0.3902489499410162</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2988,7 +2994,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.3902489499410162</v>
+        <v>0.3888697735618398</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2996,7 +3002,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.3888697735618398</v>
+        <v>0.3851762448683111</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3004,7 +3010,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.3851762448683111</v>
+        <v>0.3815455841217379</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3028,7 +3034,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.370533918527739</v>
+        <v>0.3694081667925406</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3036,7 +3042,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.3694081667925406</v>
+        <v>0.3685278932199594</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3044,7 +3050,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.3685278932199594</v>
+        <v>0.3616628200195735</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3052,7 +3058,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.3616628200195735</v>
+        <v>0.3612050820783883</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3060,7 +3066,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.3612050820783883</v>
+        <v>0.3605364402285065</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3068,7 +3074,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.3585779156627378</v>
+        <v>0.3594070140990806</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3076,7 +3082,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.3584241081161745</v>
+        <v>0.3585779156627378</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3084,7 +3090,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.3542547731776087</v>
+        <v>0.3584241081161745</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3092,7 +3098,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.3533062574690309</v>
+        <v>0.3542547731776087</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3100,7 +3106,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.3522819169739835</v>
+        <v>0.3533062574690309</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3108,7 +3114,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.3513182652411007</v>
+        <v>0.3522819169739835</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3116,7 +3122,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.3513137762660234</v>
+        <v>0.3517542269666554</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3124,7 +3130,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.3509486718219779</v>
+        <v>0.3513182652411007</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3132,7 +3138,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.3500297247217912</v>
+        <v>0.3513137762660234</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3140,7 +3146,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.3499442546363207</v>
+        <v>0.3509486718219779</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3156,7 +3162,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.3486616483537146</v>
+        <v>0.3499442546363207</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3164,7 +3170,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.3481005427926089</v>
+        <v>0.3486616483537146</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3180,7 +3186,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.3428441325361988</v>
+        <v>0.3426993168558283</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3188,7 +3194,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.340780640472707</v>
+        <v>0.3410467390405594</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3196,7 +3202,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.3388477380307546</v>
+        <v>0.340780640472707</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3204,7 +3210,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.3384137941465841</v>
+        <v>0.3388477380307546</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3220,7 +3226,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.3378502375423038</v>
+        <v>0.3374656221576882</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3236,7 +3242,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.3348658714810147</v>
+        <v>0.3347247865430785</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3244,7 +3250,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.3347247865430785</v>
+        <v>0.3317574414495077</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3252,7 +3258,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.3337249578814694</v>
+        <v>0.3316479355707711</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3260,7 +3266,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.3317574414495077</v>
+        <v>0.3307507131350871</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3268,7 +3274,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.3307507131350871</v>
+        <v>0.3305921537457586</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3276,7 +3282,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.3305921537457586</v>
+        <v>0.3283298647527002</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3284,7 +3290,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.3232108171336525</v>
+        <v>0.32235888500344</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3292,7 +3298,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.32235888500344</v>
+        <v>0.3209643883487625</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3300,7 +3306,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.3209643883487625</v>
+        <v>0.3205799437335486</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3316,7 +3322,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.3205799437335486</v>
+        <v>0.319877099569166</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3324,7 +3330,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.319877099569166</v>
+        <v>0.3195712942633608</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3332,7 +3338,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.3195712942633608</v>
+        <v>0.3194812560963993</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3444,7 +3450,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.3100689952284132</v>
+        <v>0.310065799757866</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3452,7 +3458,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3060981007901673</v>
+        <v>0.3051940048860713</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3460,7 +3466,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3051940048860713</v>
+        <v>0.3047431736660091</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3468,7 +3474,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3047431736660091</v>
+        <v>0.3035225566761615</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3500,7 +3506,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.2991269522805571</v>
+        <v>0.2971928971451445</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3508,7 +3514,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.2971928971451445</v>
+        <v>0.2946701795869637</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3516,7 +3522,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.2946701795869637</v>
+        <v>0.2940146287066951</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3556,7 +3562,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.2912381743917791</v>
+        <v>0.2917502493745614</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3564,7 +3570,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.2910981007901672</v>
+        <v>0.2912381743917791</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3572,7 +3578,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.2886128083048747</v>
+        <v>0.2910981007901672</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3580,7 +3586,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.2881360857603978</v>
+        <v>0.2886128083048747</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3588,7 +3594,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.2878685525606188</v>
+        <v>0.2882409579330243</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3596,7 +3602,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.2877296743448174</v>
+        <v>0.2878685525606188</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3604,7 +3610,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.2875841140045881</v>
+        <v>0.2877296743448174</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3612,7 +3618,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.2875571972492637</v>
+        <v>0.2875841140045881</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3620,7 +3626,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.2831066477987143</v>
+        <v>0.2848664562468677</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3628,7 +3634,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.279046818738885</v>
+        <v>0.2831066477987143</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3636,7 +3642,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.2787684612575843</v>
+        <v>0.2814333211253874</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3644,7 +3650,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.2784229981150645</v>
+        <v>0.2813920264503755</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3652,7 +3658,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.2779721668950026</v>
+        <v>0.2794480841401505</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3660,7 +3666,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2778191575112239</v>
+        <v>0.2787684612575843</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3668,7 +3674,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2776299023219688</v>
+        <v>0.2779721668950026</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3676,7 +3682,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.275982105674172</v>
+        <v>0.2776299023219688</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3684,7 +3690,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2733142180062844</v>
+        <v>0.275982105674172</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3700,7 +3706,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2722813619734283</v>
+        <v>0.2704326551247214</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3708,7 +3714,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2704326551247214</v>
+        <v>0.2689197663041403</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3716,7 +3722,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2689197663041403</v>
+        <v>0.2653275892504248</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3724,7 +3730,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2653275892504248</v>
+        <v>0.2642640176575604</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3732,7 +3738,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2645312338368986</v>
+        <v>0.2613365802594161</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3740,7 +3746,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2642640176575604</v>
+        <v>0.2609993106913771</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3748,7 +3754,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2640451537372202</v>
+        <v>0.2589344763497012</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3756,7 +3762,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.2615254512175174</v>
+        <v>0.257978442670509</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3764,7 +3770,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.2609993106913771</v>
+        <v>0.2569902001438049</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3772,7 +3778,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.25900408369615</v>
+        <v>0.2568429115349782</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3780,7 +3786,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2589344763497012</v>
+        <v>0.2545258909487265</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3788,7 +3794,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.257978442670509</v>
+        <v>0.2527403474324139</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3796,7 +3802,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.2569902001438049</v>
+        <v>0.2523740470661135</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3804,7 +3810,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2545258909487265</v>
+        <v>0.2521663060891417</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3812,7 +3818,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.2541489388410054</v>
+        <v>0.2485767332687994</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3820,7 +3826,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2527529416757774</v>
+        <v>0.2485095782016444</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3828,7 +3834,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2523740470661135</v>
+        <v>0.2482775879696542</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3836,7 +3842,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.2499198346119009</v>
+        <v>0.2460675757596422</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3844,7 +3850,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.2485767332687994</v>
+        <v>0.2446451093371758</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3852,7 +3858,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.2482775879696542</v>
+        <v>0.24445522704275</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3860,7 +3866,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.2460675757596422</v>
+        <v>0.2440636624572052</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3868,7 +3874,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.2446451093371758</v>
+        <v>0.2429784426705091</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3876,7 +3882,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.24445522704275</v>
+        <v>0.2422336319256984</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3884,7 +3890,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.2440636624572052</v>
+        <v>0.2422275269195933</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3908,7 +3914,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.2346084793005456</v>
+        <v>0.2351701398622061</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3932,7 +3938,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.2321283312434745</v>
+        <v>0.2325327772248436</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3940,7 +3946,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.2279493503450365</v>
+        <v>0.2321283312434745</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3948,7 +3954,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2264399811320477</v>
+        <v>0.2277037173957839</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3956,7 +3962,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.226067575759642</v>
+        <v>0.2266536563457229</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3964,7 +3970,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.220815799209342</v>
+        <v>0.2235156832077498</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3972,7 +3978,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2208050604971268</v>
+        <v>0.2200968797889464</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3988,7 +3994,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.215884425576492</v>
+        <v>0.2145718492639157</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3996,7 +4002,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2145718492639157</v>
+        <v>0.2120197859426216</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4004,7 +4010,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.2120197859426216</v>
+        <v>0.2117024963945626</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4012,7 +4018,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.2102311899232565</v>
+        <v>0.2103777100697763</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4020,7 +4026,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.2100114097034762</v>
+        <v>0.2068429115349781</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4028,7 +4034,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.2094985891906556</v>
+        <v>0.2068194734346167</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4036,7 +4042,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.2068194734346167</v>
+        <v>0.2065742912663575</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4044,7 +4050,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.2064216661137328</v>
+        <v>0.2045901642822305</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4052,7 +4058,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.2025571972492637</v>
+        <v>0.2024530535237969</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4060,7 +4066,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.2004772196602365</v>
+        <v>0.2021908968829631</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4068,7 +4074,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1992177589098254</v>
+        <v>0.2004772196602365</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4076,7 +4082,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1981599278519945</v>
+        <v>0.197911287603354</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4084,7 +4090,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1964577411498074</v>
+        <v>0.1978380275300939</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4092,7 +4098,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.1952433999354664</v>
+        <v>0.1964577411498074</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4100,7 +4106,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.1932104329024993</v>
+        <v>0.1918734365655028</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4108,7 +4114,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.193081672773739</v>
+        <v>0.1914033510954174</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4116,7 +4122,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.1914033510954174</v>
+        <v>0.1903342492570848</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4124,7 +4130,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.1894436441357108</v>
+        <v>0.1894985891906555</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4132,7 +4138,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.1882531679452344</v>
+        <v>0.1894436441357108</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4140,7 +4146,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.1865071361992028</v>
+        <v>0.1836910863153987</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4148,7 +4154,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.1859760006680673</v>
+        <v>0.1774908106444155</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4156,7 +4162,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.1836910863153987</v>
+        <v>0.1766048162968827</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4164,7 +4170,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.182691507383574</v>
+        <v>0.1748388045308711</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4172,7 +4178,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.1803468435004483</v>
+        <v>0.1739607936528602</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4180,7 +4186,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1789918736839402</v>
+        <v>0.1724495208633063</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4188,7 +4194,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.177524836447672</v>
+        <v>0.1717147064067728</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4196,7 +4202,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1763667210587874</v>
+        <v>0.1647549994470658</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4204,7 +4210,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.1756009270237626</v>
+        <v>0.1642543889464554</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4212,7 +4218,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1724495208633063</v>
+        <v>0.1620899598313288</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4220,7 +4226,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.1661952258872923</v>
+        <v>0.1620899598313288</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4228,7 +4234,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.1644619591540255</v>
+        <v>0.161154875337892</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4236,7 +4242,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.1644134772979704</v>
+        <v>0.1603763855248015</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4244,7 +4250,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.1642543889464554</v>
+        <v>0.1585863754616998</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4252,7 +4258,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.1633873073101431</v>
+        <v>0.1578253052096794</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4260,7 +4266,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.1620899598313288</v>
+        <v>0.1574969156505206</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4268,7 +4274,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.1620899598313288</v>
+        <v>0.1564570153798508</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4276,7 +4282,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.1615792862713528</v>
+        <v>0.1541243698538624</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4284,7 +4290,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.1603763855248015</v>
+        <v>0.1539269292346186</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4292,7 +4298,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.159193723116559</v>
+        <v>0.1535316212563298</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4300,7 +4306,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.1585863754616998</v>
+        <v>0.150395299318135</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4308,7 +4314,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.1578253052096794</v>
+        <v>0.1451644617796053</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4316,7 +4322,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.1574969156505206</v>
+        <v>0.1428699309138031</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4324,7 +4330,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.1535316212563298</v>
+        <v>0.1418369069814618</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4332,7 +4338,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.1529296026216693</v>
+        <v>0.1416377258207424</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4340,7 +4346,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.148551800936175</v>
+        <v>0.1406719030562773</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4348,7 +4354,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.145670750362817</v>
+        <v>0.1403288700209364</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4356,7 +4362,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.1431217395445754</v>
+        <v>0.1400935487035031</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4364,7 +4370,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.1418369069814618</v>
+        <v>0.1395495852031903</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4372,7 +4378,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.1390582348245166</v>
+        <v>0.1369942559170916</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4380,7 +4386,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.1385423138500033</v>
+        <v>0.134955909647976</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4388,7 +4394,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.1372730358829906</v>
+        <v>0.1347611044531709</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4396,7 +4402,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.1360540011783133</v>
+        <v>0.1346201770045512</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4404,7 +4410,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.1356507703428367</v>
+        <v>0.1344020617864361</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4412,7 +4418,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.134955909647976</v>
+        <v>0.1339555789078264</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4420,7 +4426,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.1346201770045512</v>
+        <v>0.1332135858581409</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4428,7 +4434,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.1344802741723405</v>
+        <v>0.1264708903937262</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4436,7 +4442,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1344423633651992</v>
+        <v>0.1254117145268578</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4444,7 +4450,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.1332135858581409</v>
+        <v>0.1223368620289282</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4452,7 +4458,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.132403100796644</v>
+        <v>0.1214334215779769</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4460,7 +4466,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.1323072762301121</v>
+        <v>0.1204633936169985</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4468,7 +4474,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.1313411910332574</v>
+        <v>0.1204080643309</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4476,7 +4482,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.1300848832384882</v>
+        <v>0.1188268677497035</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4484,7 +4490,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.1264514653743012</v>
+        <v>0.1157462241600102</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4492,7 +4498,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.1261308458229122</v>
+        <v>0.1150247724091467</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4500,7 +4506,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.1223368620289282</v>
+        <v>0.1148494562722919</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4508,7 +4514,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.1219524893809771</v>
+        <v>0.1145899935128294</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4516,7 +4522,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.1214334215779769</v>
+        <v>0.11456290521651</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4524,7 +4530,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.1198132104668153</v>
+        <v>0.1136494383415048</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4532,7 +4538,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.1190971040493516</v>
+        <v>0.1107137229460422</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4540,7 +4546,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.1150339299183043</v>
+        <v>0.1093147132375489</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4548,7 +4554,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.111037050729117</v>
+        <v>0.1049568488796848</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4556,7 +4562,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.1096386627922676</v>
+        <v>0.1037169776398135</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4564,7 +4570,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.1075931015159373</v>
+        <v>0.1011900601128957</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4572,7 +4578,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.1031928863464913</v>
+        <v>0.09778257016694436</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4580,7 +4586,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.09778257016694436</v>
+        <v>0.09619367662735345</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4588,7 +4594,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.09619367662735345</v>
+        <v>0.09417817682273166</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4596,7 +4602,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.09417817682273166</v>
+        <v>0.0936061482982149</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4604,7 +4610,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.09399247137684563</v>
+        <v>0.09331231819669217</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4612,7 +4618,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.08857084172444663</v>
+        <v>0.0927964451808192</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4620,7 +4626,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.08798036382627661</v>
+        <v>0.09264881503318922</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4628,7 +4634,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.0877651943803377</v>
+        <v>0.09118340010623571</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4636,7 +4642,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.0842494366338109</v>
+        <v>0.0877651943803377</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4644,7 +4650,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.08244790483227904</v>
+        <v>0.08645334383771797</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4652,7 +4658,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.08089629404989918</v>
+        <v>0.08194852613154313</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4660,7 +4666,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.07954653270013767</v>
+        <v>0.08181897150210737</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4668,7 +4674,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.07906901876108519</v>
+        <v>0.08153949072250755</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4676,7 +4682,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.07839302808509441</v>
+        <v>0.0814559053787407</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4684,7 +4690,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.07476819138333513</v>
+        <v>0.07859509097946527</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4692,7 +4698,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.07454489091895367</v>
+        <v>0.07815437784644441</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4700,7 +4706,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.07391632956993432</v>
+        <v>0.07712433950871356</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4708,7 +4714,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.07369238684599178</v>
+        <v>0.07652545121751775</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4716,7 +4722,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.07300879693163265</v>
+        <v>0.07519429980365699</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4724,7 +4730,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.06533516245042481</v>
+        <v>0.07444808414015092</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4732,7 +4738,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.06517235358613971</v>
+        <v>0.07369738185098673</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4740,7 +4746,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.06381299273582841</v>
+        <v>0.06892887484266064</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4748,7 +4754,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.06043580808036331</v>
+        <v>0.06813072628433114</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4756,7 +4762,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.05999625391908947</v>
+        <v>0.06557844950128522</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4764,7 +4770,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.05669528138734781</v>
+        <v>0.04770854163137739</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4772,7 +4778,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.04153642315156647</v>
+        <v>0.04692936354450694</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4780,7 +4786,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.04055518217032561</v>
+        <v>0.04552960945244511</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4788,7 +4794,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.02713411878951488</v>
+        <v>0.0412209693745742</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4796,7 +4802,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.02710431679638314</v>
+        <v>0.04055518217032561</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4804,7 +4810,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.02133436025719582</v>
+        <v>0.02713411878951488</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4812,7 +4818,23 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.01208361100644662</v>
+        <v>0.02710431679638314</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>0.02133436025719582</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>0.01427786663306718</v>
       </c>
     </row>
   </sheetData>
